--- a/templates/community/TRR341_Phenotyping/Study_Aerialconditions_protocol_TRR341_MIAPPE.xlsx
+++ b/templates/community/TRR341_Phenotyping/Study_Aerialconditions_protocol_TRR341_MIAPPE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/community/TRR341_Phenotyping/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\TRR341_Phenotyping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C183185-7452-1742-BE1D-950C6F67D6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770601DE-A61C-4C80-B855-E459F4D61E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24020" yWindow="-18060" windowWidth="35820" windowHeight="15400" xr2:uid="{6CEC35D9-B0D8-408B-8C76-1D9E21AEAE78}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6CEC35D9-B0D8-408B-8C76-1D9E21AEAE78}"/>
   </bookViews>
   <sheets>
     <sheet name="Aerial_conditions" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="78">
   <si>
     <t/>
   </si>
@@ -220,9 +220,6 @@
     <t xml:space="preserve">phenotyping </t>
   </si>
   <si>
-    <t>plant</t>
-  </si>
-  <si>
     <t xml:space="preserve"> metadata </t>
   </si>
   <si>
@@ -263,6 +260,15 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/UO_0000027</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C14258</t>
+  </si>
+  <si>
+    <t>NCIT</t>
+  </si>
+  <si>
+    <t>Plant</t>
   </si>
 </sst>
 </file>
@@ -412,7 +418,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -446,10 +452,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="22">
     <dxf>
@@ -567,9 +579,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -607,7 +619,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -713,7 +725,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -855,7 +867,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -883,41 +895,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E983463-9F99-4FDB-9641-266C6C75C771}">
   <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.33203125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.44140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="40.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.6640625" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="37.33203125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30.6640625" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="37.33203125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.1640625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.109375" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="25.6640625" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="27" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6.6640625" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="19.6640625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="26.1640625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="26.109375" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7.33203125" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="20.1640625" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="26.5" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="20.109375" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="26.44140625" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.5" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="20.44140625" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="27" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -955,10 +967,10 @@
         <v>14</v>
       </c>
       <c r="M1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" t="s">
         <v>71</v>
-      </c>
-      <c r="N1" t="s">
-        <v>72</v>
       </c>
       <c r="O1" t="s">
         <v>13</v>
@@ -997,7 +1009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -1035,26 +1047,26 @@
         <v>0</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="S2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="T2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="W2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1065,7 +1077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>1</v>
@@ -1103,26 +1115,26 @@
         <v>0</v>
       </c>
       <c r="P3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="S3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="T3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="W3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1133,7 +1145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -1171,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="P4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="R4" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="S4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="T4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>0</v>
@@ -1213,17 +1225,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F716968C-554E-4D78-84F8-42EF510077EE}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
@@ -1231,7 +1243,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>27</v>
       </c>
@@ -1239,7 +1251,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
@@ -1247,7 +1259,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>29</v>
       </c>
@@ -1255,7 +1267,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>30</v>
       </c>
@@ -1263,7 +1275,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>31</v>
       </c>
@@ -1271,42 +1283,42 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
         <v>59</v>
@@ -1315,113 +1327,119 @@
         <v>60</v>
       </c>
       <c r="E12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" t="s">
         <v>61</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>62</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>63</v>
       </c>
-      <c r="H12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E13" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E14" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="7"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>52</v>
       </c>
@@ -1430,6 +1448,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B19" r:id="rId1" xr:uid="{D0D19031-9023-44E0-83A9-6DC49095212E}"/>
+    <hyperlink ref="E13" r:id="rId2" xr:uid="{2DD3643F-57D1-41EA-A899-13D6C87DEAF1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/community/TRR341_Phenotyping/Study_Aerialconditions_protocol_TRR341_MIAPPE.xlsx
+++ b/templates/community/TRR341_Phenotyping/Study_Aerialconditions_protocol_TRR341_MIAPPE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\TRR341_Phenotyping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770601DE-A61C-4C80-B855-E459F4D61E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002EC0E5-7272-4DEF-824E-F124A7404616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6CEC35D9-B0D8-408B-8C76-1D9E21AEAE78}"/>
   </bookViews>
@@ -214,18 +214,9 @@
     <t>annotationTableStrangeDuck86</t>
   </si>
   <si>
-    <t xml:space="preserve"> protocol </t>
-  </si>
-  <si>
-    <t xml:space="preserve">phenotyping </t>
-  </si>
-  <si>
     <t xml:space="preserve"> metadata </t>
   </si>
   <si>
-    <t xml:space="preserve">study </t>
-  </si>
-  <si>
     <t>MIAPPE</t>
   </si>
   <si>
@@ -262,13 +253,22 @@
     <t>http://purl.obolibrary.org/obo/UO_0000027</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C14258</t>
-  </si>
-  <si>
-    <t>NCIT</t>
-  </si>
-  <si>
     <t>Plant</t>
+  </si>
+  <si>
+    <t>phenotyping</t>
+  </si>
+  <si>
+    <t>DPBO:1000224</t>
+  </si>
+  <si>
+    <t>NCIT:C14258</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>NCIT:C63536</t>
   </si>
 </sst>
 </file>
@@ -455,9 +455,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -967,10 +965,10 @@
         <v>14</v>
       </c>
       <c r="M1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O1" t="s">
         <v>13</v>
@@ -1047,25 +1045,25 @@
         <v>0</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>0</v>
@@ -1115,25 +1113,25 @@
         <v>0</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>0</v>
@@ -1183,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>0</v>
@@ -1223,19 +1221,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F716968C-554E-4D78-84F8-42EF510077EE}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
@@ -1243,7 +1242,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>27</v>
       </c>
@@ -1251,7 +1250,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
@@ -1259,7 +1258,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>29</v>
       </c>
@@ -1267,7 +1266,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>30</v>
       </c>
@@ -1275,7 +1274,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>31</v>
       </c>
@@ -1283,92 +1282,93 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" t="s">
         <v>59</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" t="s">
         <v>60</v>
       </c>
-      <c r="E12" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="E13" s="14" t="s">
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="E14" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="7"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1376,7 +1376,7 @@
         <v>42</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1390,7 +1390,7 @@
         <v>44</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1416,7 +1416,7 @@
         <v>48</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -1430,7 +1430,7 @@
         <v>50</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -1448,7 +1448,6 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B19" r:id="rId1" xr:uid="{D0D19031-9023-44E0-83A9-6DC49095212E}"/>
-    <hyperlink ref="E13" r:id="rId2" xr:uid="{2DD3643F-57D1-41EA-A899-13D6C87DEAF1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/community/TRR341_Phenotyping/Study_Aerialconditions_protocol_TRR341_MIAPPE.xlsx
+++ b/templates/community/TRR341_Phenotyping/Study_Aerialconditions_protocol_TRR341_MIAPPE.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\community\TRR341_Phenotyping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002EC0E5-7272-4DEF-824E-F124A7404616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8404265C-5B91-4FB8-A1C4-493A4BE098F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6CEC35D9-B0D8-408B-8C76-1D9E21AEAE78}"/>
   </bookViews>
   <sheets>
     <sheet name="Aerial_conditions" sheetId="1" r:id="rId1"/>
-    <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
+    <sheet name="isa_template" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -418,7 +418,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -455,7 +455,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1343,7 +1342,7 @@
       <c r="C13" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" t="s">
         <v>75</v>
       </c>
       <c r="F13" t="s">
